--- a/data/Electricity_Produce.xlsx
+++ b/data/Electricity_Produce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Dropbox/내 Mac (Kee-Won의 MacBook Air)/Documents/r_programming_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E7028DC-16BF-CF40-A8D5-F74A0CE6F5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D2340E-BDFD-3945-AC3C-0151C52723FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{198B60DD-25A8-604A-B431-4C93AA9F323F}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="27">
-  <si>
-    <t xml:space="preserve">- </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>원자력</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -151,7 +148,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -214,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,7 +532,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="B2" sqref="B2:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -550,44 +547,44 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
@@ -596,10 +593,10 @@
       <c r="F2" s="1">
         <v>511661</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1">
@@ -611,12 +608,12 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>32412450</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1">
@@ -628,10 +625,10 @@
       <c r="F3" s="1">
         <v>477076</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -643,12 +640,12 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1">
@@ -663,7 +660,7 @@
       <c r="G4" s="1">
         <v>98316</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -675,12 +672,12 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1">
@@ -695,7 +692,7 @@
       <c r="G5" s="1">
         <v>126480</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -707,15 +704,15 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
@@ -724,10 +721,10 @@
       <c r="F6" s="1">
         <v>263867</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -739,15 +736,15 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
@@ -756,10 +753,10 @@
       <c r="F7" s="1">
         <v>55850</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -771,15 +768,15 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
         <v>19589184</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
@@ -791,7 +788,7 @@
       <c r="G8" s="1">
         <v>1493853</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -803,15 +800,15 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
@@ -820,10 +817,10 @@
       <c r="F9" s="1">
         <v>134617</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -835,12 +832,12 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="1">
@@ -867,9 +864,9 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="1">
@@ -884,7 +881,7 @@
       <c r="F11" s="1">
         <v>5548426</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="1">
@@ -899,18 +896,18 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1">
@@ -919,7 +916,7 @@
       <c r="G12" s="1">
         <v>63607</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1">
@@ -931,12 +928,12 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1">
@@ -951,7 +948,7 @@
       <c r="G13" s="1">
         <v>28619</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="1">
@@ -963,12 +960,12 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1">
@@ -995,12 +992,12 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1">
         <v>31951001</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
@@ -1015,7 +1012,7 @@
       <c r="G15" s="1">
         <v>55757</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="I15" s="1">
@@ -1027,12 +1024,12 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>74062596</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
@@ -1059,18 +1056,18 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="D17" s="1">
         <v>40609636</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="1">
         <v>0</v>
       </c>
       <c r="F17" s="1">
@@ -1091,15 +1088,15 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
@@ -1111,7 +1108,7 @@
       <c r="G18" s="1">
         <v>329751</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="I18" s="1">
@@ -1123,7 +1120,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1">
         <v>158015230</v>
